--- a/notebooks/assets/test/RF2G0_1.xlsx
+++ b/notebooks/assets/test/RF2G0_1.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.576</v>
+        <v>1.686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5659999999999999</v>
+        <v>1.425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.897</v>
+        <v>1.62</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334</v>
+        <v>0.989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.296</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.58</v>
+        <v>3.944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.657</v>
+        <v>3.817</v>
       </c>
       <c r="D3" t="n">
-        <v>1.406</v>
+        <v>4.436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.39</v>
+        <v>1.909</v>
       </c>
       <c r="F3" t="n">
-        <v>0.734</v>
+        <v>7.608</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.212</v>
+        <v>18.203</v>
       </c>
       <c r="C4" t="n">
-        <v>15.444</v>
+        <v>15.45</v>
       </c>
       <c r="D4" t="n">
-        <v>18.041</v>
+        <v>18.059</v>
       </c>
       <c r="E4" t="n">
-        <v>12.88</v>
+        <v>12.974</v>
       </c>
       <c r="F4" t="n">
-        <v>30.329</v>
+        <v>30.217</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.248</v>
+        <v>18.253</v>
       </c>
       <c r="C5" t="n">
-        <v>15.322</v>
+        <v>15.18</v>
       </c>
       <c r="D5" t="n">
-        <v>17.948</v>
+        <v>17.634</v>
       </c>
       <c r="E5" t="n">
-        <v>12.868</v>
+        <v>12.964</v>
       </c>
       <c r="F5" t="n">
-        <v>30.295</v>
+        <v>30.592</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.918</v>
+        <v>0.671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.93</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.431</v>
       </c>
       <c r="F6" t="n">
-        <v>0.975</v>
+        <v>0.806</v>
       </c>
     </row>
   </sheetData>
